--- a/resources/imports/ProductSubCategorySeeder.xlsx
+++ b/resources/imports/ProductSubCategorySeeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Perkuliahan\Semester 4\Pemrograman Web\Proyek Akhir\source\mlijo-apps\resources\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25874412-15AC-4B72-BE54-0DC9E1888F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F415AE-B293-419A-92C0-E9DC8DDE4028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35715" yWindow="4005" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Kategori Produk" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,6 @@
     <t>Kari</t>
   </si>
   <si>
-    <t>Penyedap Makanan</t>
-  </si>
-  <si>
-    <t>Rempah-Rempah</t>
-  </si>
-  <si>
     <t>Saus</t>
   </si>
   <si>
@@ -595,6 +589,12 @@
   </si>
   <si>
     <t>perabotan-dapur</t>
+  </si>
+  <si>
+    <t>Penyedap</t>
+  </si>
+  <si>
+    <t>Rempah</t>
   </si>
 </sst>
 </file>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,10 +974,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1008,10 +1008,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,10 +1025,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1042,10 +1042,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,10 +1076,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,10 +1110,10 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,10 +1127,10 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,10 +1144,10 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,10 +1161,10 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1178,10 +1178,10 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1212,10 +1212,10 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1243,13 +1243,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1277,13 +1277,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1294,13 +1294,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1311,13 +1311,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1328,13 +1328,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1345,13 +1345,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1362,13 +1362,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1379,13 +1379,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,13 +1396,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1413,13 +1413,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,13 +1430,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1447,13 +1447,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1464,13 +1464,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1481,13 +1481,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1498,13 +1498,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,13 +1515,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1532,13 +1532,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1549,13 +1549,13 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1566,13 +1566,13 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1583,13 +1583,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,13 +1600,13 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,13 +1617,13 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1634,13 +1634,13 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1651,13 +1651,13 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1668,13 +1668,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1685,13 +1685,13 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1702,13 +1702,13 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1719,13 +1719,13 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1736,13 +1736,13 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1753,13 +1753,13 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1770,13 +1770,13 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1787,13 +1787,13 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,13 +1804,13 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1821,13 +1821,13 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1838,13 +1838,13 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1855,13 +1855,13 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1872,13 +1872,13 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1889,13 +1889,13 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" t="s">
         <v>187</v>
-      </c>
-      <c r="D56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1906,13 +1906,13 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1923,13 +1923,13 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1940,13 +1940,13 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1957,13 +1957,13 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1974,13 +1974,13 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1991,13 +1991,13 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2008,13 +2008,13 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/resources/imports/ProductSubCategorySeeder.xlsx
+++ b/resources/imports/ProductSubCategorySeeder.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Perkuliahan\Semester 4\Pemrograman Web\Proyek Akhir\source\mlijo-apps\resources\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mlijo-apps\resources\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25874412-15AC-4B72-BE54-0DC9E1888F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Kategori Produk" sheetId="1" r:id="rId1"/>
@@ -600,7 +599,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -926,11 +925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/imports/ProductSubCategorySeeder.xlsx
+++ b/resources/imports/ProductSubCategorySeeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Perkuliahan\Semester 4\Pemrograman Web\Proyek Akhir\source\mlijo-apps\resources\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F415AE-B293-419A-92C0-E9DC8DDE4028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C986C482-44CD-4702-BD74-7A6BEF71ADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35715" yWindow="4005" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,15 +183,6 @@
     <t>Minuman Herbal</t>
   </si>
   <si>
-    <t>Minuman Non Alkohol</t>
-  </si>
-  <si>
-    <t>Minuman Fermentasi</t>
-  </si>
-  <si>
-    <t>Minuman Alkohol</t>
-  </si>
-  <si>
     <t>Minuman Dingin</t>
   </si>
   <si>
@@ -201,9 +192,6 @@
     <t>Keju</t>
   </si>
   <si>
-    <t>Perabotan Masak</t>
-  </si>
-  <si>
     <t>Jamu</t>
   </si>
   <si>
@@ -582,9 +570,6 @@
     <t>obat_alami.png</t>
   </si>
   <si>
-    <t>Perabotan Dapur</t>
-  </si>
-  <si>
     <t>minuman-non-alkohol</t>
   </si>
   <si>
@@ -595,6 +580,21 @@
   </si>
   <si>
     <t>Rempah</t>
+  </si>
+  <si>
+    <t>Dapur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masak</t>
+  </si>
+  <si>
+    <t>Non Alkohol</t>
+  </si>
+  <si>
+    <t>Fermentasi</t>
+  </si>
+  <si>
+    <t>Alkohol</t>
   </si>
 </sst>
 </file>
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,10 +974,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1008,10 +1008,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,10 +1025,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1042,10 +1042,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,10 +1076,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,10 +1110,10 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,10 +1127,10 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,10 +1144,10 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,10 +1161,10 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1178,10 +1178,10 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1195,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1212,10 +1212,10 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1243,13 +1243,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,13 +1260,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,10 +1280,10 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,10 +1297,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1314,10 +1314,10 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,10 +1348,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,10 +1365,10 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,10 +1382,10 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,10 +1399,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1416,10 +1416,10 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1433,10 +1433,10 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,10 +1450,10 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,10 +1467,10 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,10 +1484,10 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1501,10 +1501,10 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1518,10 +1518,10 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,10 +1535,10 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1552,10 +1552,10 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,10 +1569,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,10 +1586,10 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,10 +1603,10 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,10 +1620,10 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,10 +1637,10 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1654,10 +1654,10 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,10 +1671,10 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,10 +1688,10 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1705,10 +1705,10 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,10 +1722,10 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,10 +1739,10 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,10 +1756,10 @@
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1770,13 +1770,13 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E49" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1787,13 +1787,13 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,13 +1804,13 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1821,13 +1821,13 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1838,13 +1838,13 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1855,13 +1855,13 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1872,13 +1872,13 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,10 +1892,10 @@
         <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1906,13 +1906,13 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1923,13 +1923,13 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1940,13 +1940,13 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1957,13 +1957,13 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1974,13 +1974,13 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1991,13 +1991,13 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2008,13 +2008,13 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
